--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2032733.589981711</v>
+        <v>-2034731.262994556</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>363.1823263542913</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>280.7371800627105</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>319.5263382004358</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>95.20544821841273</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>155.3197306044666</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>224.8050054269437</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>288.1487663488473</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>290.0047112246478</v>
       </c>
     </row>
     <row r="6">
@@ -1060,22 +1060,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.1620927780567</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>172.9741397051501</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>13.64947398234728</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>66.36566732833509</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>83.528293970391</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>120.4120358099648</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7644211441605784</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>115.0901731175173</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505273987</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>91.09722025521017</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,16 +1822,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>25.80452873728727</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896909</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>162.6986586448676</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>85.20934657024948</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>54.92969084765561</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C25" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D25" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E25" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F25" t="n">
-        <v>77.28915789328984</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G25" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H25" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I25" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S25" t="n">
         <v>129.7889198539626</v>
       </c>
       <c r="T25" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287484</v>
       </c>
       <c r="U25" t="n">
         <v>218.1054622689367</v>
       </c>
       <c r="V25" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W25" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X25" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y25" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373663</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I28" t="n">
         <v>42.28735533463134</v>
@@ -2761,7 +2761,7 @@
         <v>41.83246227415215</v>
       </c>
       <c r="S28" t="n">
-        <v>129.7889198539622</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T28" t="n">
         <v>153.4156709287486</v>
@@ -2770,16 +2770,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V28" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W28" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X28" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952497999</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898643</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692825</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3007,16 +3007,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898724</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857176</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692858</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329065</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373699</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789553</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463139</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415219</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287487</v>
       </c>
       <c r="U37" t="n">
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593966</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1579.049931616194</v>
+        <v>1113.745397683181</v>
       </c>
       <c r="C2" t="n">
-        <v>1210.087414675782</v>
+        <v>1113.745397683181</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.087414675782</v>
+        <v>755.4796990764307</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>755.4796990764307</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V2" t="n">
-        <v>2319.366524578578</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W2" t="n">
-        <v>2319.366524578578</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X2" t="n">
-        <v>1945.900766317498</v>
+        <v>1209.912517095719</v>
       </c>
       <c r="Y2" t="n">
-        <v>1945.900766317498</v>
+        <v>1113.745397683181</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4413,16 +4413,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2519.585513306029</v>
+        <v>257.3478788207</v>
       </c>
       <c r="C4" t="n">
-        <v>2519.585513306029</v>
+        <v>257.3478788207</v>
       </c>
       <c r="D4" t="n">
-        <v>2519.585513306029</v>
+        <v>257.3478788207</v>
       </c>
       <c r="E4" t="n">
-        <v>2519.585513306029</v>
+        <v>257.3478788207</v>
       </c>
       <c r="F4" t="n">
-        <v>2519.585513306029</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G4" t="n">
-        <v>2362.69689653384</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H4" t="n">
-        <v>2204.94852396637</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>2068.619613065019</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2667.732171871844</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>2519.585513306029</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>2519.585513306029</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T4" t="n">
-        <v>2519.585513306029</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U4" t="n">
-        <v>2519.585513306029</v>
+        <v>257.3478788207</v>
       </c>
       <c r="V4" t="n">
-        <v>2519.585513306029</v>
+        <v>257.3478788207</v>
       </c>
       <c r="W4" t="n">
-        <v>2519.585513306029</v>
+        <v>257.3478788207</v>
       </c>
       <c r="X4" t="n">
-        <v>2519.585513306029</v>
+        <v>257.3478788207</v>
       </c>
       <c r="Y4" t="n">
-        <v>2519.585513306029</v>
+        <v>257.3478788207</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4541,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1568.353113282533</v>
+        <v>1579.049931616194</v>
       </c>
       <c r="C5" t="n">
-        <v>1568.353113282533</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D5" t="n">
         <v>1210.087414675782</v>
@@ -4559,16 +4559,16 @@
         <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4577,40 +4577,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500978</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.181128500978</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W5" t="n">
-        <v>1859.412473230863</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X5" t="n">
-        <v>1859.412473230863</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="Y5" t="n">
-        <v>1859.412473230863</v>
+        <v>1579.049931616194</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,28 +4665,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>405.2609724030931</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="C7" t="n">
-        <v>405.2609724030931</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="D7" t="n">
-        <v>405.2609724030931</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="E7" t="n">
-        <v>257.3478788207</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="F7" t="n">
-        <v>257.3478788207</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406185</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406185</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406185</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406185</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W7" t="n">
-        <v>579.9823256406185</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X7" t="n">
-        <v>405.2609724030931</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y7" t="n">
-        <v>405.2609724030931</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1721.819089287443</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="C8" t="n">
-        <v>1721.819089287443</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4799,55 +4799,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2683.361743561306</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2683.361743561306</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2464.727076533369</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2464.727076533369</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2464.727076533369</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>2111.958421263255</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X8" t="n">
-        <v>2111.958421263255</v>
+        <v>1715.075343644822</v>
       </c>
       <c r="Y8" t="n">
-        <v>1721.819089287443</v>
+        <v>1715.075343644822</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4878,46 +4878,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>500.8207968750362</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C10" t="n">
-        <v>331.8846139471293</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>331.8846139471293</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>183.9715203647362</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>183.9715203647362</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>183.9715203647362</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4990,22 +4990,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>500.8207968750362</v>
+        <v>606.50066520647</v>
       </c>
       <c r="Y10" t="n">
-        <v>500.8207968750362</v>
+        <v>385.7080860629399</v>
       </c>
     </row>
     <row r="11">
@@ -5039,16 +5039,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>675.007103038344</v>
+        <v>973.0255547109412</v>
       </c>
       <c r="C13" t="n">
-        <v>675.007103038344</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="D13" t="n">
-        <v>675.007103038344</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G13" t="n">
         <v>359.1696912903951</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1382.663570439198</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>1382.663570439198</v>
       </c>
       <c r="V13" t="n">
-        <v>675.007103038344</v>
+        <v>1382.663570439198</v>
       </c>
       <c r="W13" t="n">
-        <v>675.007103038344</v>
+        <v>1382.663570439198</v>
       </c>
       <c r="X13" t="n">
-        <v>675.007103038344</v>
+        <v>1154.674019541181</v>
       </c>
       <c r="Y13" t="n">
-        <v>675.007103038344</v>
+        <v>1154.674019541181</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805461</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822453</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5303,22 +5303,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>392.0201325405893</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="C16" t="n">
-        <v>392.0201325405893</v>
+        <v>616.8574922980929</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>616.8574922980929</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>468.9443987156998</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>468.9443987156998</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>300.7690770355204</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5470,16 +5470,16 @@
         <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>820.5263570570736</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W16" t="n">
-        <v>820.5263570570736</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X16" t="n">
-        <v>794.4611765143592</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="Y16" t="n">
-        <v>573.668597370829</v>
+        <v>785.7936752259998</v>
       </c>
     </row>
     <row r="17">
@@ -5504,37 +5504,37 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5595,25 +5595,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1333.825180851558</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1663.687808515591</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>713.5778697504956</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C19" t="n">
-        <v>544.6416868225887</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D19" t="n">
-        <v>394.5250474102529</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E19" t="n">
-        <v>394.5250474102529</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F19" t="n">
         <v>247.6350999123426</v>
@@ -5698,25 +5698,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1223.499087680467</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>934.3704488940257</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V19" t="n">
-        <v>934.3704488940257</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W19" t="n">
-        <v>934.3704488940257</v>
+        <v>878.0656947841297</v>
       </c>
       <c r="X19" t="n">
-        <v>934.3704488940257</v>
+        <v>650.0761438861124</v>
       </c>
       <c r="Y19" t="n">
-        <v>713.5778697504956</v>
+        <v>429.2835647425823</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,34 +5768,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5838,7 +5838,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>303.1196361220957</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>303.1196361220957</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1075.21084526296</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>820.5263570570736</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>531.109187020113</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>303.1196361220957</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>303.1196361220957</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5978,22 +5978,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6008,7 +6008,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C25" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D25" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E25" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F25" t="n">
         <v>320.8847398504513</v>
       </c>
       <c r="G25" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H25" t="n">
         <v>139.9315917982973</v>
@@ -6145,10 +6145,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K25" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L25" t="n">
         <v>709.8489468649691</v>
@@ -6184,13 +6184,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W25" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X25" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y25" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6215,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,13 +6236,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G28" t="n">
         <v>221.5295092103129</v>
@@ -6409,25 +6409,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S28" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T28" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U28" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V28" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W28" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6473,25 +6473,25 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.357857465301</v>
@@ -6528,37 +6528,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636248</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E31" t="n">
         <v>398.9545963083206</v>
@@ -6616,13 +6616,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
         <v>709.8489468649691</v>
@@ -6658,13 +6658,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="32">
@@ -6692,34 +6692,34 @@
         <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6777,22 +6777,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>1099.417155020476</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1406.737288300438</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
         <v>2536.440602918915</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108319</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229661</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506714</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6859,10 +6859,10 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045196</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010305</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="35">
@@ -6923,49 +6923,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>474.7746905116409</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>721.5398184181049</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1028.859951698067</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
         <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504509</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525398</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,40 +7163,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7351,10 +7351,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,40 +7400,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,19 +7442,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506716</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045201</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8933,7 +8933,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>124.3400780863231</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,10 +9243,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>392.1113620226438</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>199.7396287231153</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,28 +10428,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>306.1147370139963</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>62.79465928983115</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,19 +10674,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -22544,19 +22544,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>126.1388656790009</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22595,16 +22595,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>8.225920269699134</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22705,7 +22705,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22714,10 +22714,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>11.99007165458434</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22756,22 +22756,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>61.47686881503404</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>145.6695415024086</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836047</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>106.457387940872</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23479,10 +23479,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520962</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>57.81660811232595</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>199.9051266517499</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23938,22 +23938,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>58.84890241352161</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>201.3136517663415</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>93.68578217055675</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,13 +24175,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>7.673861546209082e-13</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>7.673861546209082e-13</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -26317,16 +26317,16 @@
         <v>41052.08849321416</v>
       </c>
       <c r="D2" t="n">
-        <v>41052.08849321415</v>
+        <v>41052.08849321417</v>
       </c>
       <c r="E2" t="n">
         <v>39102.90597377086</v>
       </c>
       <c r="F2" t="n">
+        <v>39102.90597377088</v>
+      </c>
+      <c r="G2" t="n">
         <v>39102.90597377089</v>
-      </c>
-      <c r="G2" t="n">
-        <v>39102.90597377088</v>
       </c>
       <c r="H2" t="n">
         <v>39102.90597377088</v>
@@ -26347,10 +26347,10 @@
         <v>41052.08849321419</v>
       </c>
       <c r="N2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.08849321417</v>
       </c>
       <c r="O2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.08849321417</v>
       </c>
       <c r="P2" t="n">
         <v>41052.0884932142</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.51210371252</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
-        <v>54505.5121037125</v>
+        <v>54505.51210371256</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108051.543309525</v>
+        <v>108051.5433095249</v>
       </c>
       <c r="C4" t="n">
         <v>156774.9582512226</v>
@@ -26427,10 +26427,10 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143914</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143912</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
@@ -26442,19 +26442,19 @@
         <v>37464.45686275957</v>
       </c>
       <c r="K4" t="n">
-        <v>37464.45686275962</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="L4" t="n">
         <v>37464.45686275957</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275956</v>
       </c>
       <c r="N4" t="n">
         <v>37464.45686275957</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.45686275958</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="P4" t="n">
         <v>37464.45686275959</v>
@@ -26470,16 +26470,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26488,25 +26488,25 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="J5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="K5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="L5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.10582002538</v>
       </c>
-      <c r="L5" t="n">
-        <v>97715.10582002538</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.1058200254</v>
-      </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-744094.6518918385</v>
+        <v>-744308.0638817169</v>
       </c>
       <c r="C6" t="n">
         <v>-198581.9478214179</v>
@@ -26528,16 +26528,16 @@
         <v>-198581.9478214179</v>
       </c>
       <c r="E6" t="n">
-        <v>-593090.1260732808</v>
+        <v>-593187.5851992529</v>
       </c>
       <c r="F6" t="n">
-        <v>-67930.08959638487</v>
+        <v>-68027.54872235702</v>
       </c>
       <c r="G6" t="n">
-        <v>-67930.08959638486</v>
+        <v>-68027.54872235699</v>
       </c>
       <c r="H6" t="n">
-        <v>-67930.08959638482</v>
+        <v>-68027.54872235701</v>
       </c>
       <c r="I6" t="n">
         <v>-148632.9862932832</v>
@@ -26546,19 +26546,19 @@
         <v>-270550.6933821636</v>
       </c>
       <c r="K6" t="n">
-        <v>-94127.47418957086</v>
+        <v>-94127.47418957081</v>
       </c>
       <c r="L6" t="n">
-        <v>-94127.47418957076</v>
+        <v>-94127.47418957078</v>
       </c>
       <c r="M6" t="n">
-        <v>-228928.489423408</v>
+        <v>-228928.4894234078</v>
       </c>
       <c r="N6" t="n">
         <v>-148632.9862932833</v>
       </c>
       <c r="O6" t="n">
-        <v>-94127.4741895708</v>
+        <v>-94127.47418957078</v>
       </c>
       <c r="P6" t="n">
         <v>-94127.47418957078</v>
@@ -26704,25 +26704,25 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="J2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="K2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="L2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.1318901296406</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964064</v>
       </c>
-      <c r="J2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="K2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="L2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964062</v>
-      </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964067</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
@@ -26747,34 +26747,34 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="K3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="K3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.55151530918926</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>291.0324904376408</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,7 +27546,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>94.58507531463323</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>96.23322743140579</v>
       </c>
     </row>
     <row r="6">
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>3.147709480994166</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>52.73551568388706</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>40.82892859246441</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>303.3654333501339</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>72.64259487140414</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28062,7 +28062,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>105.2976195790724</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>8.952838470577262e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="29">
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.1318901296406</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35267,10 +35267,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35975,16 +35975,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>674.475064263752</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,16 +36206,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
@@ -36452,13 +36452,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K25" t="n">
         <v>219.8343186595512</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>482.1033309642235</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37002,7 +37002,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P31" t="n">
         <v>246.5154907414414</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>555.3724419700205</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,10 +37236,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>213.3700978777704</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520613</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303341</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,10 +37947,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
